--- a/result/atest_060_zernikemomentcalctime_CPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_CPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.962088636415515</v>
+        <v>1.985157327815375</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6511162201837987</v>
+        <v>-0.6846265618239887</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2216253280639648</v>
+        <v>0.1935272216796875</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8226807117462158</v>
+        <v>0.9153666496276855</v>
       </c>
       <c r="G2" t="n">
-        <v>2.170504808425903</v>
+        <v>1.875990629196167</v>
       </c>
       <c r="H2" t="n">
-        <v>3.301924705505371</v>
+        <v>3.198782444000244</v>
       </c>
       <c r="I2" t="n">
-        <v>5.349703311920166</v>
+        <v>4.602694272994995</v>
       </c>
       <c r="J2" t="n">
-        <v>7.163643360137939</v>
+        <v>7.497741937637329</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>2.276169337775698</v>
+        <v>2.061720477199316</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2747102230488154</v>
+        <v>-0.1202519203503989</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5085718631744385</v>
+        <v>0.6265554428100586</v>
       </c>
       <c r="F3" t="n">
-        <v>2.378458738327026</v>
+        <v>4.083682060241699</v>
       </c>
       <c r="G3" t="n">
-        <v>8.051931858062744</v>
+        <v>7.974957942962646</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75225901603699</v>
+        <v>13.73164916038513</v>
       </c>
       <c r="I3" t="n">
-        <v>21.21774744987488</v>
+        <v>19.27109122276306</v>
       </c>
       <c r="J3" t="n">
-        <v>27.20676422119141</v>
+        <v>27.3615448474884</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>2.263144639227253</v>
+        <v>2.137193067187482</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2140844722818007</v>
+        <v>0.2687897131114248</v>
       </c>
       <c r="E4" t="n">
-        <v>1.349196434020996</v>
+        <v>1.70207142829895</v>
       </c>
       <c r="F4" t="n">
-        <v>10.1159462928772</v>
+        <v>8.574504613876343</v>
       </c>
       <c r="G4" t="n">
-        <v>22.37301874160767</v>
+        <v>21.53450989723206</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05218935012817</v>
+        <v>40.03800082206726</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33477878570557</v>
+        <v>54.09319305419922</v>
       </c>
       <c r="J4" t="n">
-        <v>85.41138601303101</v>
+        <v>76.99678778648376</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2.107818678472882</v>
+        <v>2.335550107309903</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5964949839347098</v>
+        <v>0.4634351894935368</v>
       </c>
       <c r="E5" t="n">
-        <v>3.26781439781189</v>
+        <v>2.482518911361694</v>
       </c>
       <c r="F5" t="n">
-        <v>22.00326991081238</v>
+        <v>16.56608915328979</v>
       </c>
       <c r="G5" t="n">
-        <v>44.30914163589478</v>
+        <v>46.63618016242981</v>
       </c>
       <c r="H5" t="n">
-        <v>72.47688984870911</v>
+        <v>76.55201196670532</v>
       </c>
       <c r="I5" t="n">
-        <v>112.1111977100372</v>
+        <v>118.6135640144348</v>
       </c>
       <c r="J5" t="n">
-        <v>154.3911232948303</v>
+        <v>163.3533096313477</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>2.228466879420806</v>
+        <v>2.249485757074154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7912941026822924</v>
+        <v>0.7828154836974124</v>
       </c>
       <c r="E6" t="n">
-        <v>5.254533767700195</v>
+        <v>4.773565292358398</v>
       </c>
       <c r="F6" t="n">
-        <v>32.61060547828674</v>
+        <v>37.77042150497437</v>
       </c>
       <c r="G6" t="n">
-        <v>88.1339967250824</v>
+        <v>87.29799747467041</v>
       </c>
       <c r="H6" t="n">
-        <v>146.9082810878754</v>
+        <v>141.8713188171387</v>
       </c>
       <c r="I6" t="n">
-        <v>206.7223041057587</v>
+        <v>206.6569354534149</v>
       </c>
       <c r="J6" t="n">
-        <v>284.2924542427063</v>
+        <v>288.5880568027496</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>2.252665968917162</v>
+        <v>2.227496828161383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9774966188751918</v>
+        <v>1.020855505074886</v>
       </c>
       <c r="E7" t="n">
-        <v>8.773596286773682</v>
+        <v>8.477190494537354</v>
       </c>
       <c r="F7" t="n">
-        <v>45.82551336288452</v>
+        <v>63.45414161682129</v>
       </c>
       <c r="G7" t="n">
-        <v>131.9430093765259</v>
+        <v>138.2125058174133</v>
       </c>
       <c r="H7" t="n">
-        <v>229.6439144611359</v>
+        <v>242.7914259433746</v>
       </c>
       <c r="I7" t="n">
-        <v>344.0258638858795</v>
+        <v>355.2287845611572</v>
       </c>
       <c r="J7" t="n">
-        <v>477.8352704048157</v>
+        <v>481.760570526123</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_CPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_CPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.985157327815375</v>
+        <v>1.920236264631648</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6846265618239887</v>
+        <v>-0.6433397769296983</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1935272216796875</v>
+        <v>0.2276430130004883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9153666496276855</v>
+        <v>0.8324196338653564</v>
       </c>
       <c r="G2" t="n">
-        <v>1.875990629196167</v>
+        <v>1.996612310409546</v>
       </c>
       <c r="H2" t="n">
-        <v>3.198782444000244</v>
+        <v>3.279385805130005</v>
       </c>
       <c r="I2" t="n">
-        <v>4.602694272994995</v>
+        <v>4.660982608795166</v>
       </c>
       <c r="J2" t="n">
-        <v>7.497741937637329</v>
+        <v>7.320730924606323</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>2.061720477199316</v>
+        <v>2.12712545317124</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1202519203503989</v>
+        <v>-0.1578215054285797</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6265554428100586</v>
+        <v>0.6361558437347412</v>
       </c>
       <c r="F3" t="n">
-        <v>4.083682060241699</v>
+        <v>3.306779146194458</v>
       </c>
       <c r="G3" t="n">
-        <v>7.974957942962646</v>
+        <v>7.823306560516357</v>
       </c>
       <c r="H3" t="n">
-        <v>13.73164916038513</v>
+        <v>14.10994267463684</v>
       </c>
       <c r="I3" t="n">
-        <v>19.27109122276306</v>
+        <v>19.44057559967041</v>
       </c>
       <c r="J3" t="n">
-        <v>27.3615448474884</v>
+        <v>29.94899678230286</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>2.137193067187482</v>
+        <v>2.211512744202134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2687897131114248</v>
+        <v>0.2354445978770639</v>
       </c>
       <c r="E4" t="n">
-        <v>1.70207142829895</v>
+        <v>1.549373865127563</v>
       </c>
       <c r="F4" t="n">
-        <v>8.574504613876343</v>
+        <v>8.000507354736328</v>
       </c>
       <c r="G4" t="n">
-        <v>21.53450989723206</v>
+        <v>25.00396394729614</v>
       </c>
       <c r="H4" t="n">
-        <v>40.03800082206726</v>
+        <v>38.54376649856567</v>
       </c>
       <c r="I4" t="n">
-        <v>54.09319305419922</v>
+        <v>58.06476879119873</v>
       </c>
       <c r="J4" t="n">
-        <v>76.99678778648376</v>
+        <v>77.72225069999695</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2.335550107309903</v>
+        <v>2.087983997738065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4634351894935368</v>
+        <v>0.6426459623472288</v>
       </c>
       <c r="E5" t="n">
-        <v>2.482518911361694</v>
+        <v>3.503860712051392</v>
       </c>
       <c r="F5" t="n">
-        <v>16.56608915328979</v>
+        <v>23.82429051399231</v>
       </c>
       <c r="G5" t="n">
-        <v>46.63618016242981</v>
+        <v>51.7166600227356</v>
       </c>
       <c r="H5" t="n">
-        <v>76.55201196670532</v>
+        <v>87.0594744682312</v>
       </c>
       <c r="I5" t="n">
-        <v>118.6135640144348</v>
+        <v>113.5271372795105</v>
       </c>
       <c r="J5" t="n">
-        <v>163.3533096313477</v>
+        <v>155.5346841812134</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>2.249485757074154</v>
+        <v>2.226738069025243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7828154836974124</v>
+        <v>0.7900264396284852</v>
       </c>
       <c r="E6" t="n">
-        <v>4.773565292358398</v>
+        <v>5.140511512756348</v>
       </c>
       <c r="F6" t="n">
-        <v>37.77042150497437</v>
+        <v>34.65871500968933</v>
       </c>
       <c r="G6" t="n">
-        <v>87.29799747467041</v>
+        <v>85.12799429893494</v>
       </c>
       <c r="H6" t="n">
-        <v>141.8713188171387</v>
+        <v>139.3748338222504</v>
       </c>
       <c r="I6" t="n">
-        <v>206.6569354534149</v>
+        <v>208.431289434433</v>
       </c>
       <c r="J6" t="n">
-        <v>288.5880568027496</v>
+        <v>287.508953332901</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>2.227496828161383</v>
+        <v>2.25226299693173</v>
       </c>
       <c r="D7" t="n">
-        <v>1.020855505074886</v>
+        <v>1.006959102450927</v>
       </c>
       <c r="E7" t="n">
-        <v>8.477190494537354</v>
+        <v>8.246303558349609</v>
       </c>
       <c r="F7" t="n">
-        <v>63.45414161682129</v>
+        <v>59.59615349769592</v>
       </c>
       <c r="G7" t="n">
-        <v>138.2125058174133</v>
+        <v>148.6360523700714</v>
       </c>
       <c r="H7" t="n">
-        <v>242.7914259433746</v>
+        <v>239.1519320011139</v>
       </c>
       <c r="I7" t="n">
-        <v>355.2287845611572</v>
+        <v>354.3556311130524</v>
       </c>
       <c r="J7" t="n">
-        <v>481.760570526123</v>
+        <v>484.7346544265747</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_CPU_30P_6K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_CPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.920236264631648</v>
+        <v>1.86265222413234</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6433397769296983</v>
+        <v>-0.6086873250586016</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2276430130004883</v>
+        <v>0.2281622886657715</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8324196338653564</v>
+        <v>1.023278474807739</v>
       </c>
       <c r="G2" t="n">
-        <v>1.996612310409546</v>
+        <v>1.848527908325195</v>
       </c>
       <c r="H2" t="n">
-        <v>3.279385805130005</v>
+        <v>3.355481624603271</v>
       </c>
       <c r="I2" t="n">
-        <v>4.660982608795166</v>
+        <v>4.89976978302002</v>
       </c>
       <c r="J2" t="n">
-        <v>7.320730924606323</v>
+        <v>6.593234777450562</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12712545317124</v>
+        <v>2.105816796318805</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1578215054285797</v>
+        <v>-0.1177954646334158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6361558437347412</v>
+        <v>0.6348495483398438</v>
       </c>
       <c r="F3" t="n">
-        <v>3.306779146194458</v>
+        <v>4.317512512207031</v>
       </c>
       <c r="G3" t="n">
-        <v>7.823306560516357</v>
+        <v>8.14793062210083</v>
       </c>
       <c r="H3" t="n">
-        <v>14.10994267463684</v>
+        <v>13.73495054244995</v>
       </c>
       <c r="I3" t="n">
-        <v>19.44057559967041</v>
+        <v>22.56549525260925</v>
       </c>
       <c r="J3" t="n">
-        <v>29.94899678230286</v>
+        <v>29.51360964775085</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>2.211512744202134</v>
+        <v>2.182180792493552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2354445978770639</v>
+        <v>0.2407105523006609</v>
       </c>
       <c r="E4" t="n">
-        <v>1.549373865127563</v>
+        <v>1.582303285598755</v>
       </c>
       <c r="F4" t="n">
-        <v>8.000507354736328</v>
+        <v>8.411130905151367</v>
       </c>
       <c r="G4" t="n">
-        <v>25.00396394729614</v>
+        <v>22.34454989433289</v>
       </c>
       <c r="H4" t="n">
-        <v>38.54376649856567</v>
+        <v>36.49890661239624</v>
       </c>
       <c r="I4" t="n">
-        <v>58.06476879119873</v>
+        <v>54.42322206497192</v>
       </c>
       <c r="J4" t="n">
-        <v>77.72225069999695</v>
+        <v>80.92813372612</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2.087983997738065</v>
+        <v>2.233743283968954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6426459623472288</v>
+        <v>0.5334945992072523</v>
       </c>
       <c r="E5" t="n">
-        <v>3.503860712051392</v>
+        <v>2.943344831466675</v>
       </c>
       <c r="F5" t="n">
-        <v>23.82429051399231</v>
+        <v>18.00140857696533</v>
       </c>
       <c r="G5" t="n">
-        <v>51.7166600227356</v>
+        <v>47.74590516090393</v>
       </c>
       <c r="H5" t="n">
-        <v>87.0594744682312</v>
+        <v>78.11218905448914</v>
       </c>
       <c r="I5" t="n">
-        <v>113.5271372795105</v>
+        <v>125.232369184494</v>
       </c>
       <c r="J5" t="n">
-        <v>155.5346841812134</v>
+        <v>154.8801267147064</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>2.226738069025243</v>
+        <v>2.261144826627151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7900264396284852</v>
+        <v>0.7807572711275761</v>
       </c>
       <c r="E6" t="n">
-        <v>5.140511512756348</v>
+        <v>4.650521755218506</v>
       </c>
       <c r="F6" t="n">
-        <v>34.65871500968933</v>
+        <v>40.35826015472412</v>
       </c>
       <c r="G6" t="n">
-        <v>85.12799429893494</v>
+        <v>85.83677840232849</v>
       </c>
       <c r="H6" t="n">
-        <v>139.3748338222504</v>
+        <v>140.069983959198</v>
       </c>
       <c r="I6" t="n">
-        <v>208.431289434433</v>
+        <v>205.3339092731476</v>
       </c>
       <c r="J6" t="n">
-        <v>287.508953332901</v>
+        <v>301.6287987232208</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>2.25226299693173</v>
+        <v>2.402471022462074</v>
       </c>
       <c r="D7" t="n">
-        <v>1.006959102450927</v>
+        <v>0.921470425258061</v>
       </c>
       <c r="E7" t="n">
-        <v>8.246303558349609</v>
+        <v>7.831857919692993</v>
       </c>
       <c r="F7" t="n">
-        <v>59.59615349769592</v>
+        <v>44.51112675666809</v>
       </c>
       <c r="G7" t="n">
-        <v>148.6360523700714</v>
+        <v>132.8948104381561</v>
       </c>
       <c r="H7" t="n">
-        <v>239.1519320011139</v>
+        <v>240.3690111637115</v>
       </c>
       <c r="I7" t="n">
-        <v>354.3556311130524</v>
+        <v>405.8386788368225</v>
       </c>
       <c r="J7" t="n">
-        <v>484.7346544265747</v>
+        <v>547.5300223827362</v>
       </c>
     </row>
   </sheetData>
